--- a/data/trans_dic/P48_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P48_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios</t>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -661,57 +686,72 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>37,82%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>40,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>46,03%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>36,74%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>37,82%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,56%</t>
+          <t>38,74%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>35,97%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>36,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>42,89%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>37,2%</t>
         </is>
       </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>37,69%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>37,11%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>38,33%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>37,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>44,38%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,63; 41,53</t>
+          <t>33,93; 41,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>32,37; 43,06</t>
+          <t>32,44; 43,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>36,06; 44,22</t>
+          <t>36,01; 44,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>37,14; 45,72</t>
+          <t>37,79; 46,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>33,37; 40,1</t>
+          <t>40,29; 51,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,88; 42,15</t>
+          <t>33,44; 40,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,24; 38,18</t>
+          <t>34,77; 42,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,22; 39,26</t>
+          <t>31,35; 37,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>34,56; 39,66</t>
+          <t>33,2; 39,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>34,32; 40,72</t>
+          <t>39,1; 47,4</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,47; 39,56</t>
+          <t>34,55; 39,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>35,94; 41,32</t>
+          <t>34,93; 41,76</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>34,86; 40,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>36,12; 41,73</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>41,14; 47,82</t>
         </is>
       </c>
     </row>
@@ -801,57 +856,72 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>27,17%</t>
+          <t>28,49%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,79%</t>
+          <t>30,93%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>28,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>31,58%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,8%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>24,77%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>29,35%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>23,77%</t>
         </is>
       </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>24,76%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>27,84%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>25,79%</t>
+          <t>25,55%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>25,97%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,47%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,93; 28,67</t>
+          <t>20,78; 28,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,07; 32,81</t>
+          <t>23,5; 33,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>26,17; 36,39</t>
+          <t>26,22; 36,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,82; 32,43</t>
+          <t>24,19; 32,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,57; 26,58</t>
+          <t>26,55; 36,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,34; 27,01</t>
+          <t>19,49; 26,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,46; 28,82</t>
+          <t>18,94; 27,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,62; 27,47</t>
+          <t>21,26; 28,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>20,95; 26,46</t>
+          <t>20,27; 27,36</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>21,27; 27,9</t>
+          <t>24,94; 33,52</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>24,94; 30,85</t>
+          <t>21,54; 26,78</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>23,14; 28,62</t>
+          <t>22,41; 28,93</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>25,11; 30,86</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 28,98</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>27,25; 33,64</t>
         </is>
       </c>
     </row>
@@ -941,57 +1026,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>15,38%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>17,87%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>21,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>17,47%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>16,24%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>18,79%</t>
+          <t>17,08%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>21,03%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>18,7%</t>
         </is>
       </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,27%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>16,78%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>19,36%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,96; 26,95</t>
+          <t>13,26; 28,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,84; 31,48</t>
+          <t>14,1; 34,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,41; 21,74</t>
+          <t>10,23; 22,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,98; 24,25</t>
+          <t>11,85; 25,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,45; 23,61</t>
+          <t>13,32; 30,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,1; 23,34</t>
+          <t>12,6; 23,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 25,39</t>
+          <t>10,92; 25,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,96; 27,65</t>
+          <t>13,33; 25,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,31; 23,32</t>
+          <t>15,47; 27,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 23,96</t>
+          <t>17,73; 34,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,66; 21,42</t>
+          <t>14,44; 23,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 24,0</t>
+          <t>13,99; 25,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 22,11</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>15,33; 24,78</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>17,15; 29,1</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1196,72 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>32,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>33,37%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,11%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>37,19%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>29,16%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>29,65%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>29,12%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>35,59%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>29,67%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>29,67%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>30,56%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>31,12%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>31,33%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>31,3%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>31,65%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,63; 32,85</t>
+          <t>27,59; 32,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,23; 35,33</t>
+          <t>29,05; 36,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>30,64; 35,86</t>
+          <t>30,71; 36,42</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,15; 36,11</t>
+          <t>30,75; 36,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,11; 31,42</t>
+          <t>33,86; 40,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 32,44</t>
+          <t>26,83; 31,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>26,92; 31,44</t>
+          <t>27,46; 33,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,26; 32,06</t>
+          <t>26,87; 31,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>27,91; 31,47</t>
+          <t>27,55; 32,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,37; 32,73</t>
+          <t>32,71; 38,42</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 32,96</t>
+          <t>28,01; 31,57</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,47; 33,15</t>
+          <t>28,99; 33,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>29,48; 33,06</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>29,91; 33,65</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>34,38; 38,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población donde la persona que más ingresos aporta al hogar tiene estudios estudios superiores o universitarios (tasa de respuesta: 97,07%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>299.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>553.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>590.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>642.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>547.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>604575</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>461663</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>638988</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>671583</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>723483</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>645723</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>572234</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>625315</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>653250</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>748328</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1250298</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>1033897</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1264303</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1324833</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1471811</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>544060; 667229</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>395935; 525607</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>574364; 703307</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>603785; 738186</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>633377; 803799</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>587731; 704477</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>513530; 633158</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>562742; 681203</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>596847; 713798</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>682284; 827041</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1161307; 1333181</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>942415; 1126621</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1181707; 1357525</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1226671; 1417091</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>1364515; 1586099</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>151.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>137.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>147.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>162.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>159.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>283.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>310.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>304.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>336532</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>273681</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>417347</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>382983</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>423773</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>318208</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>249723</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>326597</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>310794</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>391615</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>654740</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>523403</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>743944</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>693777</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>815389</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>284663; 390468</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>225728; 321016</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>353796; 492334</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>327591; 446499</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>356326; 489190</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>269924; 368484</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>206110; 297013</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>280377; 371988</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>267054; 360500</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>332777; 447351</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>593450; 737644</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>459104; 592816</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>669753; 823209</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>618976; 774311</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>729182; 900445</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>83408</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58291</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>63075</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72539</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>88436</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>71051</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55201</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76089</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>83041</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99324</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>154459</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>113492</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>139164</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>155580</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>187760</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>55587; 118587</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>37116; 90295</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>41970; 92209</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>48117; 102539</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>54462; 123607</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>51265; 97105</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>35283; 81754</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>52474; 98982</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>61090; 109860</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>71466; 137442</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>119258; 194375</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82023; 152289</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>108686; 177761</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>122750; 198472</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>139249; 236272</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>457.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>479.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>408.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>501.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>535.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>498.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>896.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>620.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>958.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1014.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>906.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1024515</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>793635</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1119409</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1127105</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1235693</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1034983</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>877158</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1028002</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1047084</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1239267</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2059497</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1670793</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2147411</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2174189</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>2474960</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>935938; 1110003</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>710137; 891506</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1030050; 1221729</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1032524; 1231955</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1125007; 1340377</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>952318; 1116980</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>793234; 964497</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>942385; 1106403</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>967122; 1129252</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1139036; 1337818</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1944816; 2191426</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1545782; 1784270</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>2023161; 2268784</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2054387; 2311469</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2339459; 2634272</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
